--- a/mediciones/mirste estas mediciones mati.xlsx
+++ b/mediciones/mirste estas mediciones mati.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocío Parra\Google Drive\2019 - 1C\Electrónica II\TP\E2_TP1\mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rochi\Google Drive\2019 - 1C\Electrónica II\TP\E2_TP1\mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CBA196-07E5-4C1C-B380-6D867E25A07C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3677D2-C1AD-4BD0-8116-4C5A943AD5A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DAE4FB51-1CBA-4D47-BC09-23AF1EB4911D}"/>
+    <workbookView xWindow="22605" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{DAE4FB51-1CBA-4D47-BC09-23AF1EB4911D}"/>
   </bookViews>
   <sheets>
     <sheet name="rendimiento" sheetId="1" r:id="rId1"/>
     <sheet name="zout" sheetId="2" r:id="rId2"/>
     <sheet name="curva out" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -123,7 +122,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -201,28 +200,28 @@
                   <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.23</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>1.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -252,28 +251,28 @@
                   <c:v>8.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,34 +345,34 @@
                   <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1.66</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.1299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.05</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -403,34 +402,34 @@
                   <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13.8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.1</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1662,19 +1661,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9E7DC6-DE7B-4821-AB65-7593F83D9147}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9.0299999999999994</v>
       </c>
@@ -1707,8 +1706,12 @@
         <f>C2-A2</f>
         <v>1.370000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2-B2</f>
+        <v>1.4603000000000019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10.029999999999999</v>
       </c>
@@ -1727,8 +1730,12 @@
         <f t="shared" ref="E3:E8" si="2">C3-A3</f>
         <v>1.370000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="3">C3-B3</f>
+        <v>1.4703000000000017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1747,8 +1754,12 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>1.6099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1767,8 +1778,12 @@
         <f t="shared" si="2"/>
         <v>1.1799999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1787,8 +1802,12 @@
         <f t="shared" si="2"/>
         <v>1.2899999999999991</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14.04</v>
       </c>
@@ -1807,8 +1826,12 @@
         <f t="shared" si="2"/>
         <v>1.2600000000000016</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>1.4004000000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15.04</v>
       </c>
@@ -1827,8 +1850,12 @@
         <f t="shared" si="2"/>
         <v>1.1300000000000026</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>1.280400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1837,8 +1864,12 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>SUM(E2:E8)/7</f>
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1848,7 +1879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1858,7 +1889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1868,7 +1899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1878,7 +1909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1888,7 +1919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1898,7 +1929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1958,10 +1989,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
@@ -2006,26 +2037,53 @@
         <v>1.45</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">(A3-B3)/C3</f>
+        <f t="shared" ref="D3:D7" si="0">(A3-B3)/C3</f>
         <v>6.2068965517241281E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="e">
+      <c r="A4">
+        <v>9.01</v>
+      </c>
+      <c r="B4">
+        <v>8.93</v>
+      </c>
+      <c r="C4">
+        <v>1.56</v>
+      </c>
+      <c r="D4">
+        <f>(A4-B4)/C4</f>
+        <v>5.1282051282051329E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9.01</v>
+      </c>
+      <c r="B5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C5">
+        <v>0.98</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="e">
+        <v>6.1224489795918879E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15.03</v>
+      </c>
+      <c r="B6">
+        <v>15.01</v>
+      </c>
+      <c r="C6">
+        <v>0.86</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.3255813953487876E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2037,11 +2095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B550C311-F8DF-4781-8870-417DCA320C36}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -2199,16 +2257,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.2</v>
+        <v>8.93</v>
       </c>
       <c r="B9">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="C9">
-        <v>13.8</v>
+        <v>14.6</v>
       </c>
       <c r="D9">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="E9">
         <v>11.8</v>
@@ -2219,16 +2277,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.55000000000000004</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B10">
-        <v>1.06</v>
+        <v>1.57</v>
       </c>
       <c r="C10">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="D10">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="E10">
         <v>11.7</v>
@@ -2239,16 +2297,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="B11">
-        <v>1.03</v>
+        <v>1.57</v>
       </c>
       <c r="C11">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="D11">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="E11">
         <v>3.22</v>
@@ -2259,16 +2317,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="B12">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="C12">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="D12">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="E12">
         <v>2.2000000000000002</v>
@@ -2279,16 +2337,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="B13">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="C13">
-        <v>3.2</v>
+        <v>10.5</v>
       </c>
       <c r="D13">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="E13">
         <v>0.62</v>
@@ -2299,16 +2357,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="B14">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="C14">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="D14">
-        <v>1.1299999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2319,16 +2377,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8.8000000000000007</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B15">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="C15">
-        <v>0.55000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="D15">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="E15">
         <v>3.9</v>
@@ -2339,35 +2397,38 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8.93</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D16">
-        <v>1.02</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>7.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D17">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1.66</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C3:D18">
+    <sortCondition descending="1" ref="C3:C18"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>

--- a/mediciones/mirste estas mediciones mati.xlsx
+++ b/mediciones/mirste estas mediciones mati.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rochi\Google Drive\2019 - 1C\Electrónica II\TP\E2_TP1\mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocío Parra\Google Drive\2019 - 1C\Electrónica II\TP\E2_TP1\mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3677D2-C1AD-4BD0-8116-4C5A943AD5A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A1F2E5-471A-4CFA-9285-C76AC2404FCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22605" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{DAE4FB51-1CBA-4D47-BC09-23AF1EB4911D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DAE4FB51-1CBA-4D47-BC09-23AF1EB4911D}"/>
   </bookViews>
   <sheets>
     <sheet name="rendimiento" sheetId="1" r:id="rId1"/>
     <sheet name="zout" sheetId="2" r:id="rId2"/>
     <sheet name="curva out" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -122,7 +123,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -135,7 +136,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0469816272965886E-2"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.89653018372703408"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1327,16 +1338,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1365,7 +1376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1663,11 +1674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9E7DC6-DE7B-4821-AB65-7593F83D9147}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
@@ -1992,7 +2003,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
@@ -2037,7 +2048,7 @@
         <v>1.45</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">(A3-B3)/C3</f>
+        <f t="shared" ref="D3:D6" si="0">(A3-B3)/C3</f>
         <v>6.2068965517241281E-2</v>
       </c>
     </row>
@@ -2093,15 +2104,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B550C311-F8DF-4781-8870-417DCA320C36}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>9</v>
       </c>
@@ -2115,7 +2126,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9.01</v>
       </c>
@@ -2155,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.01</v>
       </c>
@@ -2174,8 +2185,20 @@
       <c r="F4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>(A$3-A4)/B4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>(C$3-C4)/D4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>(E$3-E4)/F4</f>
+        <v>0.11428571428571693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8.98</v>
       </c>
@@ -2194,8 +2217,20 @@
       <c r="F5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" ref="I5:I16" si="0">(A$3-A5)/B5</f>
+        <v>5.5555555555554366E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K16" si="1">(C$3-C5)/D5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M15" si="2">(E$3-E5)/F5</f>
+        <v>7.5000000000000622E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.9499999999999993</v>
       </c>
@@ -2214,8 +2249,20 @@
       <c r="F6">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6.1224489795918879E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0.13385826771653536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.93</v>
       </c>
@@ -2234,8 +2281,20 @@
       <c r="F7">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5.5944055944056E-2</v>
+      </c>
+      <c r="K7">
+        <f>(C$3-C7)/D7</f>
+        <v>2.3255813953487876E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0.11184210526315784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.93</v>
       </c>
@@ -2254,8 +2313,20 @@
       <c r="F8">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>5.7971014492753679E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.26829268292682934</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0.10559006211180119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.93</v>
       </c>
@@ -2274,8 +2345,20 @@
       <c r="F9">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>5.1282051282051329E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.272151898734177</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0.16363636363636339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.8000000000000007</v>
       </c>
@@ -2294,8 +2377,20 @@
       <c r="F10">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.13375796178343891</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.43975903614457751</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0.21893491124260414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.6</v>
       </c>
@@ -2314,8 +2409,20 @@
       <c r="F11">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.26114649681528668</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.5406976744186045</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>7.2540983606557372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.8</v>
       </c>
@@ -2334,8 +2441,20 @@
       <c r="F12">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.80132450331125826</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.68333333333333257</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>8.6578947368421062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.5</v>
       </c>
@@ -2354,8 +2473,20 @@
       <c r="F13">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.7552447552447552</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2.7289156626506021</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>10.904761904761905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.2</v>
       </c>
@@ -2374,8 +2505,20 @@
       <c r="F14">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>4.7235772357723578</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>5.3945578231292517</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>11.833333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.55000000000000004</v>
       </c>
@@ -2394,8 +2537,20 @@
       <c r="F15">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>7.981132075471697</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>9.6967213114754092</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>6.4841269841269842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2407,6 +2562,14 @@
       </c>
       <c r="D16">
         <v>1.1299999999999999</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>8.7475728155339798</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>11.707964601769911</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -2426,7 +2589,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:D18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D18">
     <sortCondition descending="1" ref="C3:C18"/>
   </sortState>
   <mergeCells count="3">
